--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf21-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf21-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Fgf21</t>
+  </si>
+  <si>
+    <t>Fgfr4</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Fgf21</t>
-  </si>
-  <si>
-    <t>Fgfr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1419566666666666</v>
+        <v>0.1419566666666667</v>
       </c>
       <c r="H2">
         <v>0.42587</v>
       </c>
       <c r="I2">
-        <v>0.6092647963490179</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.6092647963490179</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.4279076666666666</v>
+        <v>0.789222</v>
       </c>
       <c r="N2">
-        <v>1.283723</v>
+        <v>2.367666</v>
       </c>
       <c r="O2">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="P2">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="Q2">
-        <v>0.0607443460011111</v>
+        <v>0.11203532438</v>
       </c>
       <c r="R2">
-        <v>0.5466991140099999</v>
+        <v>1.00831791942</v>
       </c>
       <c r="S2">
-        <v>0.01208198060844828</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="T2">
-        <v>0.01208198060844828</v>
+        <v>0.01341929863527565</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1419566666666666</v>
+        <v>0.1419566666666667</v>
       </c>
       <c r="H3">
         <v>0.42587</v>
       </c>
       <c r="I3">
-        <v>0.6092647963490179</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.6092647963490179</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>0.890544</v>
       </c>
       <c r="O3">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="P3">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="Q3">
-        <v>0.04213955258666666</v>
+        <v>0.04213955258666667</v>
       </c>
       <c r="R3">
         <v>0.37925597328</v>
       </c>
       <c r="S3">
-        <v>0.008381508580098639</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="T3">
-        <v>0.008381508580098639</v>
+        <v>0.005047365584441773</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1419566666666666</v>
+        <v>0.1419566666666667</v>
       </c>
       <c r="H4">
         <v>0.42587</v>
       </c>
       <c r="I4">
-        <v>0.6092647963490179</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.6092647963490179</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.78097133333333</v>
+        <v>57.61405833333333</v>
       </c>
       <c r="N4">
-        <v>62.342914</v>
+        <v>172.842175</v>
       </c>
       <c r="O4">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="P4">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="Q4">
-        <v>2.949997420575555</v>
+        <v>8.178699674138889</v>
       </c>
       <c r="R4">
-        <v>26.54997678518</v>
+        <v>73.60829706725001</v>
       </c>
       <c r="S4">
-        <v>0.586751096632341</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="T4">
-        <v>0.586751096632341</v>
+        <v>0.9796232927683105</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1419566666666666</v>
+        <v>0.1419566666666667</v>
       </c>
       <c r="H5">
         <v>0.42587</v>
       </c>
       <c r="I5">
-        <v>0.6092647963490179</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.6092647963490179</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,276 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.07261233333333333</v>
+        <v>0.1123343333333333</v>
       </c>
       <c r="N5">
-        <v>0.217837</v>
+        <v>0.337003</v>
       </c>
       <c r="O5">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="P5">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="Q5">
-        <v>0.01030780479888889</v>
+        <v>0.01594660751222222</v>
       </c>
       <c r="R5">
-        <v>0.09277024318999999</v>
+        <v>0.14351946761</v>
       </c>
       <c r="S5">
-        <v>0.002050210528129938</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="T5">
-        <v>0.002050210528129938</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.09104</v>
-      </c>
-      <c r="H6">
-        <v>0.27312</v>
-      </c>
-      <c r="I6">
-        <v>0.3907352036509822</v>
-      </c>
-      <c r="J6">
-        <v>0.3907352036509821</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.4279076666666666</v>
-      </c>
-      <c r="N6">
-        <v>1.283723</v>
-      </c>
-      <c r="O6">
-        <v>0.0198304262462706</v>
-      </c>
-      <c r="P6">
-        <v>0.0198304262462706</v>
-      </c>
-      <c r="Q6">
-        <v>0.03895671397333333</v>
-      </c>
-      <c r="R6">
-        <v>0.35061042576</v>
-      </c>
-      <c r="S6">
-        <v>0.007748445637822326</v>
-      </c>
-      <c r="T6">
-        <v>0.007748445637822324</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.09104</v>
-      </c>
-      <c r="H7">
-        <v>0.27312</v>
-      </c>
-      <c r="I7">
-        <v>0.3907352036509822</v>
-      </c>
-      <c r="J7">
-        <v>0.3907352036509821</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.296848</v>
-      </c>
-      <c r="N7">
-        <v>0.890544</v>
-      </c>
-      <c r="O7">
-        <v>0.01375675835913107</v>
-      </c>
-      <c r="P7">
-        <v>0.01375675835913107</v>
-      </c>
-      <c r="Q7">
-        <v>0.02702504192</v>
-      </c>
-      <c r="R7">
-        <v>0.24322537728</v>
-      </c>
-      <c r="S7">
-        <v>0.005375249779032428</v>
-      </c>
-      <c r="T7">
-        <v>0.005375249779032427</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.09104</v>
-      </c>
-      <c r="H8">
-        <v>0.27312</v>
-      </c>
-      <c r="I8">
-        <v>0.3907352036509822</v>
-      </c>
-      <c r="J8">
-        <v>0.3907352036509821</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>20.78097133333333</v>
-      </c>
-      <c r="N8">
-        <v>62.342914</v>
-      </c>
-      <c r="O8">
-        <v>0.9630477587879871</v>
-      </c>
-      <c r="P8">
-        <v>0.9630477587879871</v>
-      </c>
-      <c r="Q8">
-        <v>1.891899630186667</v>
-      </c>
-      <c r="R8">
-        <v>17.02709667168</v>
-      </c>
-      <c r="S8">
-        <v>0.3762966621556461</v>
-      </c>
-      <c r="T8">
-        <v>0.376296662155646</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.09104</v>
-      </c>
-      <c r="H9">
-        <v>0.27312</v>
-      </c>
-      <c r="I9">
-        <v>0.3907352036509822</v>
-      </c>
-      <c r="J9">
-        <v>0.3907352036509821</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.07261233333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.217837</v>
-      </c>
-      <c r="O9">
-        <v>0.003365056606611278</v>
-      </c>
-      <c r="P9">
-        <v>0.003365056606611278</v>
-      </c>
-      <c r="Q9">
-        <v>0.006610626826666666</v>
-      </c>
-      <c r="R9">
-        <v>0.05949564144</v>
-      </c>
-      <c r="S9">
-        <v>0.001314846078481341</v>
-      </c>
-      <c r="T9">
-        <v>0.001314846078481341</v>
+        <v>0.001910043011972043</v>
       </c>
     </row>
   </sheetData>
